--- a/avalicao_heuristica/avaliacao_heuristica.xlsx
+++ b/avalicao_heuristica/avaliacao_heuristica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Desktop\IPL\SGI\Projeto\avalicao_heuristica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10776DD7-00D9-4D9E-9544-62404BC8159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D260D6-5FDC-4DE3-A05C-E86D9C116E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2686C44-F2F0-4A5E-BACF-FCB36D3B259F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{E2686C44-F2F0-4A5E-BACF-FCB36D3B259F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t xml:space="preserve">posibilidade de arrastar caixa ao mover para a próxima secção </t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>nas paginas com o icon do instagram</t>
+  </si>
+  <si>
+    <t>https://www.laredoute.pt/shp/moveis.aspx</t>
+  </si>
+  <si>
+    <t>https://www.laredoute.pt/content/cores-de-outono-/</t>
   </si>
 </sst>
 </file>
@@ -508,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7691182F-FA01-42E8-B2BE-88C7E925DD88}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,9 +529,10 @@
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>17</v>
       </c>
@@ -539,7 +546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -562,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -585,12 +592,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -610,7 +617,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -631,6 +643,9 @@
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -875,8 +890,9 @@
     <hyperlink ref="G38" r:id="rId12" xr:uid="{E3EB2B75-A076-4E8C-AE14-EC85B8371031}"/>
     <hyperlink ref="G41" r:id="rId13" xr:uid="{BD53B43A-134C-4577-8F94-7187D8584865}"/>
     <hyperlink ref="G44" r:id="rId14" xr:uid="{A5A13D07-5EAD-4875-81D3-9959CED05D64}"/>
+    <hyperlink ref="H14" r:id="rId15" xr:uid="{E461B1B6-22DD-45C4-8BC8-3092B246E61A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>